--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -20,18 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">Example TableNew</t>
   </si>
   <si>
-    <t xml:space="preserve">Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
+    <t xml:space="preserve">Diff test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Append test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -131,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,6 +168,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,6 +233,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +264,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -263,29 +281,38 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,13 +320,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,13 +334,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,13 +348,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,13 +362,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,13 +376,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,13 +390,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,13 +404,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,13 +418,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -406,13 +433,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -421,18 +448,18 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve">Example TableNew</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">Merge test:</t>
@@ -140,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,11 +174,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -233,10 +234,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -261,13 +258,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -281,7 +278,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -289,7 +286,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -297,61 +294,55 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -359,78 +350,77 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -439,27 +429,42 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="B18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="4"/>
+      <c r="C18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -176,12 +176,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC82"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,7 +243,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -250,6 +260,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC82"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -261,10 +331,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:B4"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -352,7 +422,7 @@
       <c r="A11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -461,10 +531,10 @@
       <c r="D18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="3"/>
+      <c r="E19" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve">Example TableNew</t>
   </si>
   <si>
+    <t xml:space="preserve">Extra row here in TableNew</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diff test:</t>
   </si>
   <si>
@@ -61,6 +64,15 @@
     <t xml:space="preserve">Color</t>
   </si>
   <si>
+    <t xml:space="preserve">grapefruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigRound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yellow</t>
+  </si>
+  <si>
     <t xml:space="preserve">apricot</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">oval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellow</t>
   </si>
   <si>
     <t xml:space="preserve">plum</t>
@@ -328,161 +337,163 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -490,7 +501,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
@@ -499,47 +510,61 @@
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t xml:space="preserve">Example TableNew</t>
   </si>
@@ -46,10 +46,16 @@
     <t xml:space="preserve">xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Append test:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+    <t xml:space="preserve">oldAppend test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newAppend test:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -185,12 +191,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -239,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,11 +264,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,13 +361,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -380,78 +404,72 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
@@ -459,21 +477,21 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -482,55 +500,54 @@
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>36</v>
@@ -539,27 +556,42 @@
         <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="4"/>
+      <c r="C20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test1new.xlsx
+++ b/test1new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t xml:space="preserve">Example TableNew</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">roundish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red-orange</t>
   </si>
   <si>
     <t xml:space="preserve">grapes</t>
@@ -251,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,10 +262,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,10 +357,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -412,7 +405,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -457,36 +450,34 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -508,13 +499,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,13 +527,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -565,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -580,23 +571,23 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
